--- a/biology/Botanique/Brassia/Brassia.xlsx
+++ b/biology/Botanique/Brassia/Brassia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassia est un genre d'orchidées de la tribu des Oncidiinae, décrit par Robert Brown en 1813. Son nom fut donné en honneur à William Brass, botaniste illustrateur anglais, qui a herborisé en Afrique sous la direction de Joseph Banks.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brassia et ses nombreux hybrides sont des orchidées botaniques recherchées. Communément appelés « orchidées araignées », ils sont caractérisés par des fleurs à longs sépales et longs pétales (pour certains ils peuvent atteindre plus de 50 cm).
 La zone d'expansion de cette plante épiphyte a pour centre les contreforts des Andes péruviennes et s'étend sur toute l'Amérique tropicale (Amérique centrale, Caraïbes, Floride, Pérou, Bolivie). Croissant en touffes sur des arbres, on le trouve dans les forêts humides entre 0 et 1 500 m d'altitude. Si certaines espèces sont restreintes à de petites zones géographiques, Brassia caudata peuple toute la zone susmentionnée.
@@ -545,7 +559,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brassia angustilabia Schltr. (1925)
 Brassia antherotes Rchb.f. (1879)
@@ -609,7 +625,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 xAlexanderara (Brassia × Cochlioda × Odontoglossum × Oncidium)
